--- a/memoria/documentación PCL - FPGA/test-tfg.xlsx
+++ b/memoria/documentación PCL - FPGA/test-tfg.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>normal estimation radius</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>solamente hace una criba de los sift points detectados por lo que no afecta al tiempo, cuanto menor sea el contraste, más puntos pero también peor calidad/más ruido</t>
+  </si>
+  <si>
+    <t>x0</t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +730,10 @@
       <c r="D9" s="5">
         <v>0.107999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>0.15607699999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>0.32461600000000002</v>
       </c>
       <c r="G9" s="5">
@@ -758,10 +761,10 @@
       <c r="D10">
         <v>0.45189499999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.453656</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.45300400000000002</v>
       </c>
       <c r="G10">
@@ -789,10 +792,10 @@
       <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>13</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>19</v>
       </c>
       <c r="G11" s="5">
@@ -808,14 +811,30 @@
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -975,7 +994,7 @@
       <c r="A20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>0.15582099999999999</v>
       </c>
       <c r="C20">
@@ -1001,7 +1020,7 @@
       <c r="A21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>0.60549500000000001</v>
       </c>
       <c r="C21" s="5">
@@ -1027,7 +1046,7 @@
       <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>34</v>
       </c>
       <c r="C22" s="5">
@@ -1050,14 +1069,18 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -1219,7 +1242,7 @@
       <c r="B31">
         <v>0.155749</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>0.155694</v>
       </c>
       <c r="D31">
@@ -1245,7 +1268,7 @@
       <c r="B32" s="5">
         <v>0.32869599999999999</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <v>0.42935200000000001</v>
       </c>
       <c r="D32" s="5">
@@ -1271,7 +1294,7 @@
       <c r="B33" s="5">
         <v>9</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
         <v>13</v>
       </c>
       <c r="D33" s="5">
@@ -1291,14 +1314,20 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
@@ -1506,10 +1535,10 @@
       <c r="F42">
         <v>0.155</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>0.155</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>0.155</v>
       </c>
       <c r="I42">
@@ -1538,10 +1567,10 @@
       <c r="F43" s="5">
         <v>0.46997800000000001</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="7">
         <v>0.58033699999999999</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="7">
         <v>0.70225099999999996</v>
       </c>
       <c r="I43" s="5">
@@ -1570,10 +1599,10 @@
       <c r="F44" s="5">
         <v>13</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="7">
         <v>21</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="7">
         <v>27</v>
       </c>
       <c r="I44" s="5">
@@ -1584,16 +1613,34 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
